--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.00119913008538</v>
+        <v>0.09821600000000001</v>
       </c>
       <c r="H2">
-        <v>2.00119913008538</v>
+        <v>0.294648</v>
       </c>
       <c r="I2">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491012</v>
       </c>
       <c r="J2">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.1028172623171</v>
+        <v>7.457778999999999</v>
       </c>
       <c r="N2">
-        <v>2.1028172623171</v>
+        <v>22.373337</v>
       </c>
       <c r="O2">
-        <v>0.0253124470148074</v>
+        <v>0.08029647035915141</v>
       </c>
       <c r="P2">
-        <v>0.0253124470148074</v>
+        <v>0.0802964703591514</v>
       </c>
       <c r="Q2">
-        <v>4.208156076077501</v>
+        <v>0.732473222264</v>
       </c>
       <c r="R2">
-        <v>4.208156076077501</v>
+        <v>6.592259000376</v>
       </c>
       <c r="S2">
-        <v>0.01474863859396458</v>
+        <v>0.002039772292826374</v>
       </c>
       <c r="T2">
-        <v>0.01474863859396458</v>
+        <v>0.002039772292826373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.00119913008538</v>
+        <v>0.09821600000000001</v>
       </c>
       <c r="H3">
-        <v>2.00119913008538</v>
+        <v>0.294648</v>
       </c>
       <c r="I3">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491012</v>
       </c>
       <c r="J3">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.61422099607753</v>
+        <v>2.732509</v>
       </c>
       <c r="N3">
-        <v>2.61422099607753</v>
+        <v>8.197526999999999</v>
       </c>
       <c r="O3">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764526</v>
       </c>
       <c r="P3">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764525</v>
       </c>
       <c r="Q3">
-        <v>5.231576783201288</v>
+        <v>0.268376103944</v>
       </c>
       <c r="R3">
-        <v>5.231576783201288</v>
+        <v>2.415384935496</v>
       </c>
       <c r="S3">
-        <v>0.01833549750938244</v>
+        <v>0.0007473667626915068</v>
       </c>
       <c r="T3">
-        <v>0.01833549750938244</v>
+        <v>0.0007473667626915063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.00119913008538</v>
+        <v>0.09821600000000001</v>
       </c>
       <c r="H4">
-        <v>2.00119913008538</v>
+        <v>0.294648</v>
       </c>
       <c r="I4">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491012</v>
       </c>
       <c r="J4">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.3573978515154</v>
+        <v>82.68775466666666</v>
       </c>
       <c r="N4">
-        <v>78.3573978515154</v>
+        <v>248.063264</v>
       </c>
       <c r="O4">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332034</v>
       </c>
       <c r="P4">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332033</v>
       </c>
       <c r="Q4">
-        <v>156.8087564162066</v>
+        <v>8.121260512341333</v>
       </c>
       <c r="R4">
-        <v>156.8087564162066</v>
+        <v>73.091344611072</v>
       </c>
       <c r="S4">
-        <v>0.549579348993011</v>
+        <v>0.02261587409939224</v>
       </c>
       <c r="T4">
-        <v>0.549579348993011</v>
+        <v>0.02261587409939223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.43337190666739</v>
+        <v>2.101448</v>
       </c>
       <c r="H5">
-        <v>1.43337190666739</v>
+        <v>6.304344</v>
       </c>
       <c r="I5">
-        <v>0.4173365149036422</v>
+        <v>0.5435276450716743</v>
       </c>
       <c r="J5">
-        <v>0.4173365149036422</v>
+        <v>0.5435276450716742</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.1028172623171</v>
+        <v>7.457778999999999</v>
       </c>
       <c r="N5">
-        <v>2.1028172623171</v>
+        <v>22.373337</v>
       </c>
       <c r="O5">
-        <v>0.0253124470148074</v>
+        <v>0.08029647035915141</v>
       </c>
       <c r="P5">
-        <v>0.0253124470148074</v>
+        <v>0.0802964703591514</v>
       </c>
       <c r="Q5">
-        <v>3.014119188660563</v>
+        <v>15.672134763992</v>
       </c>
       <c r="R5">
-        <v>3.014119188660563</v>
+        <v>141.049212875928</v>
       </c>
       <c r="S5">
-        <v>0.01056380842084282</v>
+        <v>0.04364335144187706</v>
       </c>
       <c r="T5">
-        <v>0.01056380842084282</v>
+        <v>0.04364335144187705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.43337190666739</v>
+        <v>2.101448</v>
       </c>
       <c r="H6">
-        <v>1.43337190666739</v>
+        <v>6.304344</v>
       </c>
       <c r="I6">
-        <v>0.4173365149036422</v>
+        <v>0.5435276450716743</v>
       </c>
       <c r="J6">
-        <v>0.4173365149036422</v>
+        <v>0.5435276450716742</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.61422099607753</v>
+        <v>2.732509</v>
       </c>
       <c r="N6">
-        <v>2.61422099607753</v>
+        <v>8.197526999999999</v>
       </c>
       <c r="O6">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764526</v>
       </c>
       <c r="P6">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764525</v>
       </c>
       <c r="Q6">
-        <v>3.747150933597573</v>
+        <v>5.742225573032</v>
       </c>
       <c r="R6">
-        <v>3.747150933597573</v>
+        <v>51.68003015728799</v>
       </c>
       <c r="S6">
-        <v>0.01313291947293491</v>
+        <v>0.01599079975487233</v>
       </c>
       <c r="T6">
-        <v>0.01313291947293491</v>
+        <v>0.01599079975487233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.101448</v>
+      </c>
+      <c r="H7">
+        <v>6.304344</v>
+      </c>
+      <c r="I7">
+        <v>0.5435276450716743</v>
+      </c>
+      <c r="J7">
+        <v>0.5435276450716742</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>82.68775466666666</v>
+      </c>
+      <c r="N7">
+        <v>248.063264</v>
+      </c>
+      <c r="O7">
+        <v>0.8902831314332034</v>
+      </c>
+      <c r="P7">
+        <v>0.8902831314332033</v>
+      </c>
+      <c r="Q7">
+        <v>173.7640166687573</v>
+      </c>
+      <c r="R7">
+        <v>1563.876150018816</v>
+      </c>
+      <c r="S7">
+        <v>0.4838934938749249</v>
+      </c>
+      <c r="T7">
+        <v>0.4838934938749248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.666649</v>
+      </c>
+      <c r="H8">
+        <v>4.999947</v>
+      </c>
+      <c r="I8">
+        <v>0.4310693417734156</v>
+      </c>
+      <c r="J8">
+        <v>0.4310693417734155</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.457778999999999</v>
+      </c>
+      <c r="N8">
+        <v>22.373337</v>
+      </c>
+      <c r="O8">
+        <v>0.08029647035915141</v>
+      </c>
+      <c r="P8">
+        <v>0.0802964703591514</v>
+      </c>
+      <c r="Q8">
+        <v>12.429499912571</v>
+      </c>
+      <c r="R8">
+        <v>111.865499213139</v>
+      </c>
+      <c r="S8">
+        <v>0.03461334662444798</v>
+      </c>
+      <c r="T8">
+        <v>0.03461334662444796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.43337190666739</v>
-      </c>
-      <c r="H7">
-        <v>1.43337190666739</v>
-      </c>
-      <c r="I7">
-        <v>0.4173365149036422</v>
-      </c>
-      <c r="J7">
-        <v>0.4173365149036422</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>78.3573978515154</v>
-      </c>
-      <c r="N7">
-        <v>78.3573978515154</v>
-      </c>
-      <c r="O7">
-        <v>0.9432191360028753</v>
-      </c>
-      <c r="P7">
-        <v>0.9432191360028753</v>
-      </c>
-      <c r="Q7">
-        <v>112.3152927599219</v>
-      </c>
-      <c r="R7">
-        <v>112.3152927599219</v>
-      </c>
-      <c r="S7">
-        <v>0.3936397870098645</v>
-      </c>
-      <c r="T7">
-        <v>0.3936397870098645</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.666649</v>
+      </c>
+      <c r="H9">
+        <v>4.999947</v>
+      </c>
+      <c r="I9">
+        <v>0.4310693417734156</v>
+      </c>
+      <c r="J9">
+        <v>0.4310693417734155</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.732509</v>
+      </c>
+      <c r="N9">
+        <v>8.197526999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.02942039820764526</v>
+      </c>
+      <c r="P9">
+        <v>0.02942039820764525</v>
+      </c>
+      <c r="Q9">
+        <v>4.554133392340999</v>
+      </c>
+      <c r="R9">
+        <v>40.98720053106899</v>
+      </c>
+      <c r="S9">
+        <v>0.01268223169008142</v>
+      </c>
+      <c r="T9">
+        <v>0.01268223169008141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.666649</v>
+      </c>
+      <c r="H10">
+        <v>4.999947</v>
+      </c>
+      <c r="I10">
+        <v>0.4310693417734156</v>
+      </c>
+      <c r="J10">
+        <v>0.4310693417734155</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>82.68775466666666</v>
+      </c>
+      <c r="N10">
+        <v>248.063264</v>
+      </c>
+      <c r="O10">
+        <v>0.8902831314332034</v>
+      </c>
+      <c r="P10">
+        <v>0.8902831314332033</v>
+      </c>
+      <c r="Q10">
+        <v>137.8114636274453</v>
+      </c>
+      <c r="R10">
+        <v>1240.303172647008</v>
+      </c>
+      <c r="S10">
+        <v>0.3837737634588863</v>
+      </c>
+      <c r="T10">
+        <v>0.3837737634588861</v>
       </c>
     </row>
   </sheetData>
